--- a/data/trans_dic/DC_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2903081243675228</v>
+        <v>0.2896183775426857</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4575306364818838</v>
+        <v>0.4555934137515673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3918743211405071</v>
+        <v>0.3963560719045467</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3774839533356376</v>
+        <v>0.381384903486788</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5275484376247311</v>
+        <v>0.5289900746227907</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4484388397565617</v>
+        <v>0.4523006518958964</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.2301066298836799</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3939573949142791</v>
+        <v>0.393957394914279</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.3181769561278717</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2021577738322769</v>
+        <v>0.2004000694669624</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3686161959545533</v>
+        <v>0.3695092353073526</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3001039063484343</v>
+        <v>0.2984249713282185</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2567651775398685</v>
+        <v>0.2564661505497148</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4200695440627353</v>
+        <v>0.4195808725427813</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3358921570412477</v>
+        <v>0.3365550287141243</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.1858933487733503</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3629098636836685</v>
+        <v>0.3629098636836686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2744507333902618</v>
+        <v>0.2744507333902619</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1637104034735712</v>
+        <v>0.1637616199916634</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3377850647689271</v>
+        <v>0.3381099665327255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2538711297519679</v>
+        <v>0.2551614509377235</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2131552880305299</v>
+        <v>0.2133346822186505</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3887283856020409</v>
+        <v>0.390755637295131</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2928777611522089</v>
+        <v>0.2923284964105727</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1939402814252955</v>
+        <v>0.1971298609161536</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3791819987421985</v>
+        <v>0.3799892579945933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.291754129374686</v>
+        <v>0.2919048040930658</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2492141117616624</v>
+        <v>0.2513462684681158</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.440344938415283</v>
+        <v>0.4379954973525253</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3368984293991095</v>
+        <v>0.3324405647661828</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.2298274475022441</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4051999125223101</v>
+        <v>0.4051999125223102</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.320153681058714</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2158645110946449</v>
+        <v>0.2147261544652189</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3907053937464157</v>
+        <v>0.3912633050148291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3085807566623971</v>
+        <v>0.3098978991602948</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2438713281035627</v>
+        <v>0.2456408839095881</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4186686704480989</v>
+        <v>0.4191970064740739</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3289692784689477</v>
+        <v>0.3313842500704275</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>144788</v>
+        <v>144444</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>285307</v>
+        <v>284099</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>439808</v>
+        <v>444838</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>188266</v>
+        <v>190212</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>328969</v>
+        <v>329868</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>503292</v>
+        <v>507626</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>194099</v>
+        <v>192412</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>411320</v>
+        <v>412317</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>623012</v>
+        <v>619526</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>246530</v>
+        <v>246243</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>468734</v>
+        <v>468189</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>697307</v>
+        <v>698684</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>171319</v>
+        <v>171373</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>353878</v>
+        <v>354218</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>531637</v>
+        <v>534339</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>223063</v>
+        <v>223250</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>407248</v>
+        <v>409372</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>613321</v>
+        <v>612171</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>189272</v>
+        <v>192385</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>345186</v>
+        <v>345921</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>550328</v>
+        <v>550612</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>243215</v>
+        <v>245296</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>400866</v>
+        <v>398727</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>635483</v>
+        <v>627074</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>751486</v>
+        <v>747523</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1444600</v>
+        <v>1446663</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2215209</v>
+        <v>2224664</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>848985</v>
+        <v>855146</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1547992</v>
+        <v>1549946</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2361572</v>
+        <v>2378908</v>
       </c>
     </row>
     <row r="24">
